--- a/Server/m2m/data/destination.xlsx
+++ b/Server/m2m/data/destination.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Mood2Move\Server\m2m\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF51B8E-B56E-4BB5-B63B-2048627E0DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5D2EA9-8E64-4192-B818-45B28C147641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D95614B2-1E7D-43A1-97F4-5009A03AFAA8}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.33203125" defaultRowHeight="33.6" customHeight="1"/>
